--- a/genshin/428144527867850661_2020-08-27_18-19-26.xlsx
+++ b/genshin/428144527867850661_2020-08-27_18-19-26.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-08-30 18:51:03</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44073.78545138889</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>3428745024</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-08-29 15:59:14</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44072.66613425926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -673,10 +685,8 @@
           <t>3420134190</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-08-29 00:32:54</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44072.02284722222</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>3418838156</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-08-29 00:29:16</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44072.02032407407</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -819,10 +827,8 @@
           <t>3420471372</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-08-28 20:10:59</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44071.84096064815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -890,10 +896,8 @@
           <t>3419165804</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:53:04</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44071.82851851852</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -961,10 +965,8 @@
           <t>3420471372</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:50:46</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44071.8269212963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1032,10 +1034,8 @@
           <t>3424248314</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-08-28 19:08:03</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44071.79725694445</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1107,10 +1107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-08-28 12:37:02</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44071.52571759259</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1170,10 +1168,8 @@
           <t>3422414563</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-08-28 12:33:12</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44071.52305555555</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1249,10 +1245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-08-28 11:11:15</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44071.46614583334</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1312,10 +1306,8 @@
           <t>3419506153</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-08-28 11:09:10</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44071.46469907407</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1379,10 +1371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-08-28 10:45:51</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44071.44850694444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1446,10 +1436,8 @@
           <t>3418808721</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-08-28 10:16:47</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44071.42832175926</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1521,10 +1509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-08-28 08:10:38</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44071.34071759259</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1600,10 +1586,8 @@
           <t>3418812576</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-08-28 07:25:11</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44071.30915509259</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1667,10 +1651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-08-28 06:47:08</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44071.28273148148</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1738,10 +1720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-08-28 06:01:20</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44071.25092592592</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1810,10 +1790,8 @@
           <t>3421243195</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-08-28 06:00:57</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44071.25065972222</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1882,10 +1860,8 @@
           <t>3421176354</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-08-28 03:56:58</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44071.16456018519</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1945,10 +1921,8 @@
           <t>3421135458</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-08-28 03:09:05</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44071.13130787037</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2016,10 +1990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-08-28 01:06:27</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44071.04614583333</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2095,10 +2067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-08-28 00:52:25</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44071.03640046297</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2174,10 +2144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-08-28 00:04:50</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44071.00335648148</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2245,10 +2213,8 @@
           <t>3419709887</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-08-27 23:59:01</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44070.99931712963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2312,10 +2278,8 @@
           <t>3419709887</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-08-27 23:58:51</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44070.99920138889</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2379,10 +2343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-08-27 23:40:50</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44070.98668981482</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2446,10 +2408,8 @@
           <t>3420464412</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-08-27 23:22:49</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44070.97417824074</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2517,10 +2477,8 @@
           <t>3420471372</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-08-27 23:22:32</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44070.97398148148</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2588,10 +2546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-08-27 23:14:50</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44070.96863425926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2655,10 +2611,8 @@
           <t>3420380586</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-08-27 23:06:22</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44070.96275462963</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2722,10 +2676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-08-27 23:02:04</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44070.95976851852</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2793,10 +2745,8 @@
           <t>3419955587</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-08-27 22:50:00</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44070.95138888889</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2860,10 +2810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-08-27 22:43:24</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44070.94680555556</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2923,10 +2871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-08-27 22:33:22</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44070.93983796296</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2994,10 +2940,8 @@
           <t>3420134190</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-08-27 22:28:08</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44070.93620370371</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3061,10 +3005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-08-27 22:22:48</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44070.9325</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
@@ -3136,10 +3078,8 @@
           <t>3418824619</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-08-27 22:18:31</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44070.92952546296</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
@@ -3215,10 +3155,8 @@
           <t>3419506153</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-08-27 22:13:31</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44070.92605324074</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3294,10 +3232,8 @@
           <t>3419955587</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:56:29</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44070.91422453704</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3365,10 +3301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:48:58</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44070.90900462963</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3444,10 +3378,8 @@
           <t>3418808721</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:46:38</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44070.90738425926</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3519,10 +3451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:41:51</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44070.9040625</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3594,10 +3524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:23:46</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44070.89150462963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3657,10 +3585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:14:37</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44070.88515046296</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3736,10 +3662,8 @@
           <t>3419709887</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:13:49</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44070.88459490741</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3811,10 +3735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:07:02</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44070.87988425926</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3874,10 +3796,8 @@
           <t>3419676833</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:06:26</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44070.87946759259</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3953,10 +3873,8 @@
           <t>3418943038</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:52:49</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44070.87001157407</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4020,10 +3938,8 @@
           <t>3419601009</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:51:36</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44070.86916666666</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4090,10 +4006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:39:36</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44070.86083333333</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4157,10 +4071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:38:26</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44070.86002314815</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4233,10 +4145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:38:11</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44070.85984953704</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4300,10 +4210,8 @@
           <t>3419506153</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:32:53</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44070.85616898148</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4367,10 +4275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:29:57</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44070.85413194444</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4438,10 +4344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:26:05</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44070.85144675926</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4505,10 +4409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:24:50</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44070.85057870371</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4578,10 +4480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:24:08</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44070.85009259259</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4641,10 +4541,8 @@
           <t>3419181344</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:20:14</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44070.84738425926</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4708,10 +4606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:18:57</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44070.84649305556</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4787,10 +4683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:18:21</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44070.84607638889</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4858,10 +4752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:10:59</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44070.84096064815</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4929,10 +4821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:03:43</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44070.83591435185</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5008,10 +4898,8 @@
           <t>3418954655</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:00:09</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44070.8334375</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5075,10 +4963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:55:43</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44070.83035879629</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5150,10 +5036,8 @@
           <t>3419181344</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:51:28</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44070.82740740741</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5225,10 +5109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:51:13</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44070.8272337963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5296,10 +5178,8 @@
           <t>3418808721</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:48:42</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44070.82548611111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5367,10 +5247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:44:40</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44070.82268518519</v>
       </c>
       <c r="I70" t="n">
         <v>11</v>
@@ -5446,10 +5324,8 @@
           <t>3418831915</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:43:46</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44070.82206018519</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5513,10 +5389,8 @@
           <t>3419234068</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:43:21</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44070.82177083333</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5580,10 +5454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:42:57</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44070.82149305556</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5655,10 +5527,8 @@
           <t>3419217680</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:39:41</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44070.81922453704</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5718,10 +5588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:38:23</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44070.81832175926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5785,10 +5653,8 @@
           <t>3419202300</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:36:39</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44070.81711805556</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5852,10 +5718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:34:28</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44070.81560185185</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5919,10 +5783,8 @@
           <t>3419196731</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:34:26</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44070.8155787037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -5998,10 +5860,8 @@
           <t>3418943038</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:33:39</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44070.81503472223</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6073,10 +5933,8 @@
           <t>3418812576</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:31:36</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44070.81361111111</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6152,10 +6010,8 @@
           <t>3419181344</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:31:21</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44070.8134375</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6220,10 +6076,8 @@
           <t>3418812576</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:30:49</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44070.81306712963</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6295,10 +6149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:30:02</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44070.81252314815</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6374,10 +6226,8 @@
           <t>3419163070</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:29:25</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44070.81209490741</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6453,10 +6303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:28:33</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44070.81149305555</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6524,10 +6372,8 @@
           <t>3419165804</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:28:16</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44070.8112962963</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6603,10 +6449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:24:02</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44070.80835648148</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6666,10 +6510,8 @@
           <t>3419128528</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:23:47</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44070.80818287037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6741,10 +6583,8 @@
           <t>3418814394</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:22:45</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44070.80746527778</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6812,10 +6652,8 @@
           <t>3418960451</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:22:02</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44070.80696759259</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6891,10 +6729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:19:26</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44070.80516203704</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6962,10 +6798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:18:45</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44070.8046875</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7042,10 +6876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:18:39</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44070.80461805555</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7114,10 +6946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:18:10</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44070.80428240741</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7189,10 +7019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:17:48</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44070.80402777778</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7268,10 +7096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:17:42</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44070.80395833333</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7339,10 +7165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:17:23</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44070.80373842592</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7406,10 +7230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:16:45</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44070.80329861111</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7477,10 +7299,8 @@
           <t>3418814577</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:16:28</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44070.80310185185</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7557,10 +7377,8 @@
           <t>3419089496</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:16:16</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44070.80296296296</v>
       </c>
       <c r="I100" t="n">
         <v>8</v>
@@ -7624,10 +7442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:14:32</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44070.80175925926</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7695,10 +7511,8 @@
           <t>3418960451</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:14:01</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44070.80140046297</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7770,10 +7584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:12:44</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44070.80050925926</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7840,10 +7652,8 @@
           <t>3418814577</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:12:05</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44070.80005787037</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -7912,10 +7722,8 @@
           <t>3418845514</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:11:51</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44070.79989583333</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -7987,10 +7795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:11:29</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44070.7996412037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8062,10 +7868,8 @@
           <t>3418845514</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:10:26</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44070.79891203704</v>
       </c>
       <c r="I107" t="n">
         <v>4</v>
@@ -8133,10 +7937,8 @@
           <t>3418989526</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:10:12</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44070.79875</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8200,10 +8002,8 @@
           <t>3419062213</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:09:12</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44070.79805555556</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8267,10 +8067,8 @@
           <t>3419056283</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:08:27</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44070.79753472222</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8334,10 +8132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:08:26</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44070.79752314815</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8401,10 +8197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:04:16</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44070.79462962963</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8476,10 +8270,8 @@
           <t>3419033397</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:03:58</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44070.7944212963</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8547,10 +8339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:03:51</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44070.79434027777</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8614,10 +8404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:02:40</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44070.79351851852</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8681,10 +8469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:01:57</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44070.79302083333</v>
       </c>
       <c r="I116" t="n">
         <v>21</v>
@@ -8752,10 +8538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:01:23</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44070.79262731481</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8823,10 +8607,8 @@
           <t>3418831915</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:00:33</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44070.79204861111</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8898,10 +8680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:00:25</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44070.79195601852</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -8977,10 +8757,8 @@
           <t>3418816429</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:00:03</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44070.79170138889</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9048,10 +8826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:58:20</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44070.79050925926</v>
       </c>
       <c r="I121" t="n">
         <v>19</v>
@@ -9119,10 +8895,8 @@
           <t>3418989526</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:56:08</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44070.78898148148</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9190,10 +8964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:54:30</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44070.78784722222</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9269,10 +9041,8 @@
           <t>3418985561</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:53:52</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44070.78740740741</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9340,10 +9110,8 @@
           <t>3418960451</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:53:31</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44070.78716435185</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9419,10 +9187,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:53:16</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44070.78699074074</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9495,10 +9261,8 @@
           <t>3418964951</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:53:05</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44070.78686342593</v>
       </c>
       <c r="I127" t="n">
         <v>4</v>
@@ -9574,10 +9338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:52:59</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44070.78679398148</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9645,10 +9407,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:52:34</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44070.78650462963</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9724,10 +9484,8 @@
           <t>3418845514</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:51:45</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44070.7859375</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9799,10 +9557,8 @@
           <t>3418882002</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:51:43</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44070.78591435185</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9878,10 +9634,8 @@
           <t>3418967122</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:51:25</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44070.78570601852</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -9957,10 +9711,8 @@
           <t>3418967130</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:51:25</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44070.78570601852</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10032,10 +9784,8 @@
           <t>3418882002</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:51:23</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44070.78568287037</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10111,10 +9861,8 @@
           <t>3418960451</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:51:14</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44070.7855787037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10190,10 +9938,8 @@
           <t>3418961713</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:51:04</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44070.78546296297</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10261,10 +10007,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:50:42</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44070.78520833333</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10324,10 +10068,8 @@
           <t>3418960451</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:50:17</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44070.78491898148</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10403,10 +10145,8 @@
           <t>3418954655</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:49:57</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44070.7846875</v>
       </c>
       <c r="I139" t="n">
         <v>23</v>
@@ -10474,10 +10214,8 @@
           <t>3418949758</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:49:50</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44070.78460648148</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10541,10 +10279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:49:42</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44070.78451388889</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10612,10 +10348,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:49:33</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44070.78440972222</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10691,10 +10425,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:49:16</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44070.78421296296</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10754,10 +10486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:48:57</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44070.78399305556</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -10833,10 +10563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:48:48</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44070.78388888889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10900,10 +10628,8 @@
           <t>3418882002</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:48:46</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44070.78386574074</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -10971,10 +10697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:48:24</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44070.78361111111</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11038,10 +10762,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:47:53</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44070.78325231482</v>
       </c>
       <c r="I148" t="n">
         <v>5</v>
@@ -11117,10 +10839,8 @@
           <t>3418882002</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:47:12</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44070.78277777778</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11188,10 +10908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:47:04</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44070.78268518519</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11259,10 +10977,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:47:02</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44070.78266203704</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11326,10 +11042,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:47:02</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44070.78266203704</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11389,10 +11103,8 @@
           <t>3418882002</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:46:54</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44070.78256944445</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11460,10 +11172,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:46:43</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44070.78244212963</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -11539,10 +11249,8 @@
           <t>3418938901</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:46:32</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44070.78231481482</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11614,10 +11322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:46:29</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44070.78228009259</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11693,10 +11399,8 @@
           <t>3418943038</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:46:28</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44070.78226851852</v>
       </c>
       <c r="I157" t="n">
         <v>17</v>
@@ -11768,10 +11472,8 @@
           <t>3418845514</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:46:09</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44070.78204861111</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11843,10 +11545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:45:49</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44070.78181712963</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11914,10 +11614,8 @@
           <t>3418935993</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:44:52</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44070.78115740741</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11977,10 +11675,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:44:51</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44070.78114583333</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12040,10 +11736,8 @@
           <t>3418808721</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:44:06</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44070.780625</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12103,10 +11797,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:43:48</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44070.78041666667</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -12182,10 +11874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:43:33</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44070.78024305555</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12245,10 +11935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:43:26</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44070.78016203704</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12324,10 +12012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:43:20</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44070.78009259259</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12403,10 +12089,8 @@
           <t>3418808721</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:43:12</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44070.78</v>
       </c>
       <c r="I167" t="n">
         <v>8</v>
@@ -12466,10 +12150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:43:10</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44070.77997685185</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12533,10 +12215,8 @@
           <t>3418845514</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:43:01</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44070.77987268518</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12612,10 +12292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:42:31</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44070.77952546296</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12684,10 +12362,8 @@
           <t>3418921533</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:42:15</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44070.77934027778</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12759,10 +12435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:42:13</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44070.77931712963</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12826,10 +12500,8 @@
           <t>3418921432</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:42:11</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44070.77929398148</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12897,10 +12569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:42:10</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44070.77928240741</v>
       </c>
       <c r="I174" t="n">
         <v>2</v>
@@ -12964,10 +12634,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:42:10</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44070.77928240741</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13027,10 +12695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:42:08</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44070.77925925926</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13094,10 +12760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:41:53</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44070.77908564815</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13173,10 +12837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:41:36</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44070.77888888889</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13244,10 +12906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:41:22</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44070.77872685185</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13311,10 +12971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:41:14</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44070.77863425926</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13382,10 +13040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:41:13</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44070.77862268518</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13453,10 +13109,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:40:59</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44070.77846064815</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13516,10 +13170,8 @@
           <t>3418845514</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:40:20</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44070.77800925926</v>
       </c>
       <c r="I183" t="n">
         <v>11</v>
@@ -13579,10 +13231,8 @@
           <t>3418908201</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:40:19</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44070.77799768518</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13658,10 +13308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:39:51</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44070.77767361111</v>
       </c>
       <c r="I185" t="n">
         <v>17</v>
@@ -13729,10 +13377,8 @@
           <t>3418907236</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:39:47</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44070.77762731481</v>
       </c>
       <c r="I186" t="n">
         <v>3</v>
@@ -13800,10 +13446,8 @@
           <t>3418812576</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:39:45</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44070.77760416667</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -13879,10 +13523,8 @@
           <t>3418906694</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:39:28</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44070.7774074074</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -13958,10 +13600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:39:18</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44070.77729166667</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14033,10 +13673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:38:52</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44070.77699074074</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14112,10 +13750,8 @@
           <t>3418857618</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:38:50</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44070.7769675926</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14191,10 +13827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:38:34</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44070.77678240741</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14258,10 +13892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:38:19</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44070.7766087963</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14329,10 +13961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:37:39</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44070.77614583333</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14396,10 +14026,8 @@
           <t>3418882002</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:37:27</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44070.77600694444</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14475,10 +14103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:37:08</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44070.77578703704</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14554,10 +14180,8 @@
           <t>3418892387</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:37:04</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44070.77574074074</v>
       </c>
       <c r="I197" t="n">
         <v>5</v>
@@ -14621,10 +14245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:36:22</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44070.77525462963</v>
       </c>
       <c r="I198" t="n">
         <v>38</v>
@@ -14688,10 +14310,8 @@
           <t>3418882002</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:36:19</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44070.77521990741</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14759,10 +14379,8 @@
           <t>3418845514</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:35:52</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44070.77490740741</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -14834,10 +14452,8 @@
           <t>3418842966</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:35:32</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44070.77467592592</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14909,10 +14525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:35:07</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44070.77438657408</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -14980,10 +14594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:34:58</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44070.77428240741</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15055,10 +14667,8 @@
           <t>3418837619</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:34:56</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44070.77425925926</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15122,10 +14732,8 @@
           <t>3418823257</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:34:56</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44070.77425925926</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15197,10 +14805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:34:37</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44070.77403935185</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15272,10 +14878,8 @@
           <t>3418845514</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:34:31</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44070.77396990741</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15347,10 +14951,8 @@
           <t>3418877620</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:34:22</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44070.77386574074</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15422,10 +15024,8 @@
           <t>3418882002</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:34:20</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44070.77384259259</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15501,10 +15101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:33:48</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44070.77347222222</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15568,10 +15166,8 @@
           <t>3418816429</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:33:44</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44070.77342592592</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15647,10 +15243,8 @@
           <t>3418857618</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:33:35</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44070.77332175926</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15722,10 +15316,8 @@
           <t>3418837619</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:33:21</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44070.77315972222</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15793,10 +15385,8 @@
           <t>3418872117</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:33:17</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44070.77311342592</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -15872,10 +15462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:52</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44070.77282407408</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15947,10 +15535,8 @@
           <t>3418871276</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:47</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44070.77276620371</v>
       </c>
       <c r="I216" t="n">
         <v>13</v>
@@ -16018,10 +15604,8 @@
           <t>3418871163</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:43</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44070.77271990741</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16093,10 +15677,8 @@
           <t>3418864538</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:41</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44070.77269675926</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16160,10 +15742,8 @@
           <t>3418864477</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:40</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44070.77268518518</v>
       </c>
       <c r="I219" t="n">
         <v>4</v>
@@ -16231,10 +15811,8 @@
           <t>3418871013</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:39</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44070.77267361111</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16311,10 +15889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:36</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44070.77263888889</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16378,10 +15954,8 @@
           <t>3418868525</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:24</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44070.7725</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16449,10 +16023,8 @@
           <t>3418870262</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:13</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44070.77237268518</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16528,10 +16100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:01</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44070.7722337963</v>
       </c>
       <c r="I224" t="n">
         <v>10</v>
@@ -16603,10 +16173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:32:01</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44070.7722337963</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16674,10 +16242,8 @@
           <t>3418823257</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:31:46</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44070.77206018518</v>
       </c>
       <c r="I226" t="n">
         <v>15</v>
@@ -16753,10 +16319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:31:43</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44070.77202546296</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16824,10 +16388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:31:32</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44070.77189814814</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16899,10 +16461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:31:31</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44070.77188657408</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16978,10 +16538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:31:04</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44070.77157407408</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17049,10 +16607,8 @@
           <t>3418857618</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:30:44</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44070.77134259259</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17128,10 +16684,8 @@
           <t>3418857577</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:30:42</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44070.77131944444</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17203,10 +16757,8 @@
           <t>3418860513</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:30:28</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44070.77115740741</v>
       </c>
       <c r="I233" t="n">
         <v>3</v>
@@ -17282,10 +16834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:30:19</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44070.77105324074</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17349,10 +16899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:30:18</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44070.77104166667</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17416,10 +16964,8 @@
           <t>3418854475</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:30:12</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44070.77097222222</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17495,10 +17041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:30:12</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44070.77097222222</v>
       </c>
       <c r="I237" t="n">
         <v>184</v>
@@ -17567,10 +17111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:30:05</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44070.77089120371</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17642,10 +17184,8 @@
           <t>3418854126</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:30:00</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44070.77083333334</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17721,10 +17261,8 @@
           <t>3418831915</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:29:27</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44070.77045138889</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17788,10 +17326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:29:20</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44070.77037037037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17869,10 +17405,8 @@
           <t>3418808721</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:29:10</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44070.77025462963</v>
       </c>
       <c r="I242" t="n">
         <v>4</v>
@@ -17948,10 +17482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:28:59</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44070.77012731481</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18028,10 +17560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:28:48</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44070.77</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18103,10 +17633,8 @@
           <t>3418843847</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:28:33</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44070.76982638889</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18183,10 +17711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:28:33</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44070.76982638889</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18262,10 +17788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:28:26</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44070.76974537037</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18329,10 +17853,8 @@
           <t>3418846858</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:28:25</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44070.7697337963</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18408,10 +17930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:28:22</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44070.76969907407</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18480,10 +18000,8 @@
           <t>3418831915</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:28:08</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44070.76953703703</v>
       </c>
       <c r="I250" t="n">
         <v>3</v>
@@ -18560,10 +18078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:28:06</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44070.76951388889</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18639,10 +18155,8 @@
           <t>3418842966</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:28:02</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44070.7694675926</v>
       </c>
       <c r="I252" t="n">
         <v>5</v>
@@ -18706,10 +18220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:27:49</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44070.76931712963</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18781,10 +18293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:27:43</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44070.76924768519</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18848,10 +18358,8 @@
           <t>3418845514</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:27:42</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44070.76923611111</v>
       </c>
       <c r="I255" t="n">
         <v>15</v>
@@ -18911,10 +18419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:27:36</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44070.76916666667</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18982,10 +18488,8 @@
           <t>3418845204</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:27:31</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44070.7691087963</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19045,10 +18549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:27:28</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44070.76907407407</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19116,10 +18618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:27:27</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44070.7690625</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19187,10 +18687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:27:23</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44070.7690162037</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19262,10 +18760,8 @@
           <t>3418841533</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:27:12</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44070.76888888889</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19329,10 +18825,8 @@
           <t>3418841150</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:59</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44070.76873842593</v>
       </c>
       <c r="I262" t="n">
         <v>26</v>
@@ -19400,10 +18894,8 @@
           <t>3418834011</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:51</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44070.76864583333</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19467,10 +18959,8 @@
           <t>3418838156</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:43</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44070.76855324074</v>
       </c>
       <c r="I264" t="n">
         <v>40</v>
@@ -19546,10 +19036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:35</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44070.76846064815</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19613,10 +19101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:33</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44070.7684375</v>
       </c>
       <c r="I266" t="n">
         <v>11</v>
@@ -19688,10 +19174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:32</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44070.76842592593</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19759,10 +19243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:31</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44070.76841435185</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
@@ -19826,10 +19308,8 @@
           <t>3418837619</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:26</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44070.76835648148</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19893,10 +19373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:25</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44070.76834490741</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19969,10 +19447,8 @@
           <t>3418832766</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:10</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44070.76817129629</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20036,10 +19512,8 @@
           <t>3418836985</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:26:05</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44070.76811342593</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20103,10 +19577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:25:48</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44070.76791666666</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20182,10 +19654,8 @@
           <t>3418831915</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:25:42</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44070.76784722223</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20249,10 +19719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:25:42</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44070.76784722223</v>
       </c>
       <c r="I275" t="n">
         <v>6</v>
@@ -20312,10 +19780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:25:30</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44070.76770833333</v>
       </c>
       <c r="I276" t="n">
         <v>3</v>
@@ -20388,10 +19854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:25:20</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44070.76759259259</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20455,10 +19919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:25:19</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44070.76758101852</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20522,10 +19984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:25:11</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44070.76748842592</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20593,10 +20053,8 @@
           <t>3418814577</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:25:06</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44070.76743055556</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20668,10 +20126,8 @@
           <t>3418824619</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:48</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44070.76722222222</v>
       </c>
       <c r="I281" t="n">
         <v>4</v>
@@ -20747,10 +20203,8 @@
           <t>3418830215</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:47</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44070.76721064815</v>
       </c>
       <c r="I282" t="n">
         <v>5</v>
@@ -20814,10 +20268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:44</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44070.76717592592</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20885,10 +20337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:43</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44070.76716435186</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20956,10 +20406,8 @@
           <t>3418816429</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:43</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44070.76716435186</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21035,10 +20483,8 @@
           <t>3418824120</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:32</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44070.76703703704</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21102,10 +20548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:30</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44070.76701388889</v>
       </c>
       <c r="I287" t="n">
         <v>17</v>
@@ -21181,10 +20625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:22</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44070.76692129629</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21256,10 +20698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:21</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44070.76690972222</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21323,10 +20763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:19</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44070.76688657407</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21394,10 +20832,8 @@
           <t>3418823709</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:19</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44070.76688657407</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21473,10 +20909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:17</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44070.76686342592</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21548,10 +20982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:13</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44070.76681712963</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21615,10 +21047,8 @@
           <t>3418819059</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:10</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44070.76678240741</v>
       </c>
       <c r="I294" t="n">
         <v>2</v>
@@ -21686,10 +21116,8 @@
           <t>3418823257</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:05</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44070.76672453704</v>
       </c>
       <c r="I295" t="n">
         <v>10</v>
@@ -21761,10 +21189,8 @@
           <t>3418823228</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:04</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44070.76671296296</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -21836,10 +21262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:02</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44070.76668981482</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21915,10 +21339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:23:46</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44070.76650462963</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21986,10 +21408,8 @@
           <t>3418825322</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:23:42</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44070.76645833333</v>
       </c>
       <c r="I299" t="n">
         <v>5</v>
@@ -22053,10 +21473,8 @@
           <t>3418816429</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:23:38</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44070.76641203704</v>
       </c>
       <c r="I300" t="n">
         <v>3</v>
@@ -22120,10 +21538,8 @@
           <t>3418814577</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:23:17</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44070.76616898148</v>
       </c>
       <c r="I301" t="n">
         <v>37</v>
@@ -22195,10 +21611,8 @@
           <t>3418814394</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:23:12</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44070.76611111111</v>
       </c>
       <c r="I302" t="n">
         <v>4</v>
@@ -22266,10 +21680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:23:11</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44070.76609953704</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22337,10 +21749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:23:10</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44070.76608796296</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22416,10 +21826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:23:01</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44070.76598379629</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22495,10 +21903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:51</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44070.76586805555</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22574,10 +21980,8 @@
           <t>3418816429</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:44</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44070.76578703704</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22653,10 +22057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:43</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44070.76577546296</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22732,10 +22134,8 @@
           <t>3418820613</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:41</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44070.76575231482</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22799,10 +22199,8 @@
           <t>3418816307</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:40</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44070.76574074074</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22870,10 +22268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:33</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44070.76565972222</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22949,10 +22345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:33</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44070.76565972222</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23021,10 +22415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:30</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44070.765625</v>
       </c>
       <c r="I313" t="n">
         <v>4</v>
@@ -23088,10 +22480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:29</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44070.76561342592</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23167,10 +22557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:13</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44070.76542824074</v>
       </c>
       <c r="I315" t="n">
         <v>58</v>
@@ -23238,10 +22626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:11</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44070.76540509259</v>
       </c>
       <c r="I316" t="n">
         <v>8</v>
@@ -23305,10 +22691,8 @@
           <t>3418812576</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:11</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44070.76540509259</v>
       </c>
       <c r="I317" t="n">
         <v>21</v>
@@ -23372,10 +22756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:10</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44070.76539351852</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23445,10 +22827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:04</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44070.76532407408</v>
       </c>
       <c r="I319" t="n">
         <v>41</v>
@@ -23512,10 +22892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:22:02</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44070.76530092592</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23591,10 +22969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:59</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44070.76526620371</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23658,10 +23034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:58</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44070.76525462963</v>
       </c>
       <c r="I322" t="n">
         <v>3</v>
@@ -23725,10 +23099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:56</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44070.76523148148</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23804,10 +23176,8 @@
           <t>3418809215</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:54</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44070.76520833333</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23883,10 +23253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:50</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44070.76516203704</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23959,10 +23327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:46</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44070.76511574074</v>
       </c>
       <c r="I326" t="n">
         <v>3</v>
@@ -24026,10 +23392,8 @@
           <t>3418804449</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:40</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44070.7650462963</v>
       </c>
       <c r="I327" t="n">
         <v>3</v>
@@ -24097,10 +23461,8 @@
           <t>3418808721</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:38</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44070.76502314815</v>
       </c>
       <c r="I328" t="n">
         <v>27</v>
@@ -24168,10 +23530,8 @@
           <t>3418811448</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:33</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44070.76496527778</v>
       </c>
       <c r="I329" t="n">
         <v>2</v>
@@ -24244,10 +23604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:26</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44070.76488425926</v>
       </c>
       <c r="I330" t="n">
         <v>209</v>
@@ -24311,10 +23669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:25</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44070.76487268518</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24390,10 +23746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:23</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44070.76484953704</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24457,10 +23811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:20</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44070.76481481481</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24520,10 +23872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:13</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44070.7647337963</v>
       </c>
       <c r="I334" t="n">
         <v>15</v>
@@ -24591,10 +23941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:06</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44070.76465277778</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24662,10 +24010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:05</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44070.76464120371</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -24729,10 +24075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:03</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44070.76461805555</v>
       </c>
       <c r="I337" t="n">
         <v>122</v>
@@ -24808,10 +24152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:21:01</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44070.76459490741</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24887,10 +24229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:54</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44070.76451388889</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24954,10 +24294,8 @@
           <t>3418807266</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:52</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44070.76449074074</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25030,10 +24368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:51</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44070.76447916667</v>
       </c>
       <c r="I341" t="n">
         <v>265</v>
@@ -25109,10 +24445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:47</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44070.76443287037</v>
       </c>
       <c r="I342" t="n">
         <v>3</v>
@@ -25188,10 +24522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:45</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44070.76440972222</v>
       </c>
       <c r="I343" t="n">
         <v>13</v>
@@ -25267,10 +24599,8 @@
           <t>3418802627</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:43</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44070.76438657408</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25338,10 +24668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:40</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44070.76435185185</v>
       </c>
       <c r="I345" t="n">
         <v>23</v>
@@ -25417,10 +24745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:39</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44070.76434027778</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25480,10 +24806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:38</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44070.76432870371</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25547,10 +24871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:37</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44070.76431712963</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25626,10 +24948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:36</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44070.76430555555</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25701,10 +25021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:35</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44070.76429398148</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25768,10 +25086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:33</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44070.76427083334</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -25844,10 +25160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:32</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44070.76425925926</v>
       </c>
       <c r="I352" t="n">
         <v>55</v>
@@ -25915,10 +25229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:27</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44070.76420138889</v>
       </c>
       <c r="I353" t="n">
         <v>27</v>
@@ -25978,10 +25290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:22</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44070.76414351852</v>
       </c>
       <c r="I354" t="n">
         <v>10</v>
@@ -26049,10 +25359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:17</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44070.76408564814</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26124,10 +25432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:14</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44070.76405092593</v>
       </c>
       <c r="I356" t="n">
         <v>482</v>
@@ -26195,10 +25501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:13</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44070.76403935185</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26266,10 +25570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:11</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44070.76401620371</v>
       </c>
       <c r="I358" t="n">
         <v>28</v>
@@ -26333,10 +25635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:11</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44070.76401620371</v>
       </c>
       <c r="I359" t="n">
         <v>4</v>
@@ -26412,10 +25712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:10</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44070.76400462963</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26479,10 +25777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:08</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44070.76398148148</v>
       </c>
       <c r="I361" t="n">
         <v>411</v>
@@ -26546,10 +25842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:06</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44070.76395833334</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26617,10 +25911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:05</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44070.76394675926</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26680,10 +25972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:03</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44070.76392361111</v>
       </c>
       <c r="I364" t="n">
         <v>21</v>
@@ -26755,10 +26045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:02</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44070.76391203704</v>
       </c>
       <c r="I365" t="n">
         <v>140</v>
@@ -26826,10 +26114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:02</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44070.76391203704</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26897,10 +26183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:01</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44070.76390046296</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -26968,10 +26252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:01</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44070.76390046296</v>
       </c>
       <c r="I368" t="n">
         <v>2</v>
@@ -27043,10 +26325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:01</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44070.76390046296</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27118,10 +26398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:01</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44070.76390046296</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27185,10 +26463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:01</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44070.76390046296</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27256,10 +26532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:20:01</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44070.76390046296</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27327,10 +26601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:59</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44070.76387731481</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27394,10 +26666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:59</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44070.76387731481</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27469,10 +26739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:59</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44070.76387731481</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27548,10 +26816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:56</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44070.76384259259</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27623,10 +26889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:52</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44070.7637962963</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27694,10 +26958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:52</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44070.7637962963</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27773,10 +27035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:49</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44070.76376157408</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27844,10 +27104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:48</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44070.76375</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -27923,10 +27181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:46</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44070.76372685185</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -27994,10 +27250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:45</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44070.76371527778</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28065,10 +27319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:19:41</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44070.76366898148</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
